--- a/Data/Claims.xlsx
+++ b/Data/Claims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilip.wakdikar\Downloads\CMIM_InsuranceEmailClassification.1.0.4\content\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilip.wakdikar\Downloads\CMIM_InsuranceEmailClassification-main\CMIM_InsuranceEmailClassification-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978E2099-9DD3-479D-8E2C-28BF06532D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2073B536-5DCE-4D67-A0C9-7D29735F1187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="3210" windowWidth="21540" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34545" yWindow="3195" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="32">
   <si>
     <t>Authority Contacted</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,6 +1433,182 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44831</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1234567</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45084</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2">
+        <v>123455</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45084</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2">
+        <v>123455</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45084</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <v>123455</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
